--- a/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26AD2AC8-2759-4B94-AF6C-760CE412AE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5F3E82-7056-4964-B1B8-4AE9EF8FED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D10666A-49D0-49A4-959E-CD23239B40BA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{78A08021-9404-4D0A-A1EA-8B34C8C3295F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,241 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>3,58%</t>
@@ -100,39 +331,6 @@
     <t>6,24%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>27,22%</t>
   </si>
   <si>
@@ -160,24 +358,6 @@
     <t>32,89%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>67,8%</t>
   </si>
   <si>
@@ -205,123 +385,114 @@
     <t>72,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>3,85%</t>
   </si>
   <si>
@@ -349,12 +520,6 @@
     <t>9,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>30,03%</t>
   </si>
   <si>
@@ -406,169 +571,34 @@
     <t>67,83%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>3,17%</t>
@@ -592,30 +622,6 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
     <t>29,5%</t>
   </si>
   <si>
@@ -640,12 +646,6 @@
     <t>33,53%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
     <t>66,22%</t>
   </si>
   <si>
@@ -676,9 +676,198 @@
     <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
   </si>
   <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
     <t>3,42%</t>
   </si>
   <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
@@ -697,15 +886,6 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
     <t>38,31%</t>
   </si>
   <si>
@@ -733,18 +913,6 @@
     <t>40,54%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>57,62%</t>
   </si>
   <si>
@@ -772,100 +940,130 @@
     <t>66,97%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -892,18 +1090,6 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
     <t>37,51%</t>
   </si>
   <si>
@@ -931,24 +1117,6 @@
     <t>46,5%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
     <t>56,88%</t>
   </si>
   <si>
@@ -976,172 +1144,37 @@
     <t>61,15%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>1,82%</t>
@@ -1165,24 +1198,6 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
     <t>34,97%</t>
   </si>
   <si>
@@ -1207,21 +1222,6 @@
     <t>38,94%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
     <t>60,98%</t>
   </si>
   <si>
@@ -1252,6 +1252,168 @@
     <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
     <t>2,68%</t>
   </si>
   <si>
@@ -1273,12 +1435,6 @@
     <t>8,31%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
     <t>35,98%</t>
   </si>
   <si>
@@ -1306,15 +1462,6 @@
     <t>41,16%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
     <t>61,34%</t>
   </si>
   <si>
@@ -1342,97 +1489,97 @@
     <t>63,54%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -1444,9 +1591,6 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>3,28%</t>
   </si>
   <si>
@@ -1456,12 +1600,6 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>40,24%</t>
   </si>
   <si>
@@ -1513,142 +1651,13 @@
     <t>61,08%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,59%</t>
@@ -1669,9 +1678,6 @@
     <t>4,82%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
     <t>36,09%</t>
   </si>
   <si>
@@ -1694,12 +1700,6 @@
   </si>
   <si>
     <t>39,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
   </si>
   <si>
     <t>60,59%</t>
@@ -2118,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9C477C-79A5-4C55-9F99-42AAD601BD98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F697E1-8101-462F-B558-248B0DAA7271}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2236,10 +2236,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3294</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2251,238 +2251,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3855</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7149</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1293</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1820</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3113</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>25071</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>27187</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>52258</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1958</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>4268</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>62446</v>
+        <v>10522</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>66319</v>
+        <v>11032</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="N8" s="7">
-        <v>128765</v>
+        <v>21554</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,108 +2491,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>92104</v>
+        <v>12480</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>99181</v>
+        <v>13342</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>191285</v>
+        <v>25822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1361</v>
+        <v>667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1204</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>2564</v>
+        <v>667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -2601,13 +2601,13 @@
         <v>802</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2616,13 +2616,13 @@
         <v>647</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2631,121 +2631,121 @@
         <v>1449</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>13301</v>
+        <v>1361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>14389</v>
+        <v>1204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>27690</v>
+        <v>2564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>667</v>
+        <v>13301</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>14389</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="7">
         <v>41</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
       <c r="N13" s="7">
-        <v>667</v>
+        <v>27690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>61</v>
@@ -2754,13 +2754,13 @@
         <v>39358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -2769,13 +2769,13 @@
         <v>27191</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>102</v>
@@ -2784,13 +2784,13 @@
         <v>66549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2805,13 @@
         <v>55488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -2820,13 +2820,13 @@
         <v>43431</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -2835,270 +2835,270 @@
         <v>98919</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3391</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>5979</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>9369</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>26464</v>
+        <v>3294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>27400</v>
+        <v>3855</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="N18" s="7">
-        <v>53863</v>
+        <v>7149</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>25071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>27187</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="7">
+        <v>81</v>
+      </c>
+      <c r="N19" s="7">
+        <v>52258</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D20" s="7">
-        <v>58274</v>
+        <v>62446</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7">
+        <v>104</v>
+      </c>
+      <c r="I20" s="7">
+        <v>66319</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="7">
+        <v>199</v>
+      </c>
+      <c r="N20" s="7">
+        <v>128765</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>58</v>
-      </c>
-      <c r="I20" s="7">
-        <v>44931</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>143</v>
-      </c>
-      <c r="N20" s="7">
-        <v>103205</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,72 +3107,72 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7">
-        <v>88129</v>
+        <v>92104</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>78309</v>
+        <v>99181</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="N21" s="7">
-        <v>166438</v>
+        <v>191285</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3181,34 +3181,34 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -3217,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3247,166 +3247,166 @@
         <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>1958</v>
+        <v>1762</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>632</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2394</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="7">
-        <v>3</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2310</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M24" s="7">
-        <v>6</v>
-      </c>
-      <c r="N24" s="7">
-        <v>4268</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24540</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>20711</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>45251</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7">
-        <v>10522</v>
+        <v>34416</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>11032</v>
+        <v>34310</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="N26" s="7">
-        <v>21554</v>
+        <v>68727</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,108 +3415,108 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="D27" s="7">
-        <v>12480</v>
+        <v>61377</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="I27" s="7">
-        <v>13342</v>
+        <v>55653</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="N27" s="7">
-        <v>25822</v>
+        <v>117031</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1762</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>2394</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
         <v>0</v>
@@ -3525,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3540,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3555,145 +3555,145 @@
         <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>24540</v>
+        <v>3391</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="7">
+        <v>8</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5979</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>13</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9369</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20711</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M30" s="7">
-        <v>74</v>
-      </c>
-      <c r="N30" s="7">
-        <v>45251</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D31" s="7">
-        <v>659</v>
+        <v>26464</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="7">
+        <v>36</v>
+      </c>
+      <c r="I31" s="7">
+        <v>27400</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="M31" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="N31" s="7">
-        <v>659</v>
+        <v>53863</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D32" s="7">
-        <v>34416</v>
+        <v>58274</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="7">
+        <v>58</v>
+      </c>
+      <c r="I32" s="7">
+        <v>44931</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="H32" s="7">
-        <v>55</v>
-      </c>
-      <c r="I32" s="7">
-        <v>34310</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>172</v>
@@ -3702,10 +3702,10 @@
         <v>173</v>
       </c>
       <c r="M32" s="7">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="N32" s="7">
-        <v>68727</v>
+        <v>103205</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>174</v>
@@ -3723,49 +3723,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>61377</v>
+        <v>88129</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I33" s="7">
-        <v>55653</v>
+        <v>78309</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="N33" s="7">
-        <v>117031</v>
+        <v>166438</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,55 +3776,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>9807</v>
+        <v>1325</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="7">
-        <v>17</v>
-      </c>
-      <c r="I34" s="7">
-        <v>11669</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>2</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1325</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M34" s="7">
-        <v>32</v>
-      </c>
-      <c r="N34" s="7">
-        <v>21477</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -3833,13 +3833,13 @@
         <v>2095</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3848,13 +3848,13 @@
         <v>2467</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -3863,121 +3863,121 @@
         <v>4562</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>91333</v>
+        <v>9807</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="7">
+        <v>17</v>
+      </c>
+      <c r="I36" s="7">
+        <v>11669</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M36" s="7">
+        <v>32</v>
+      </c>
+      <c r="N36" s="7">
+        <v>21477</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H36" s="7">
-        <v>138</v>
-      </c>
-      <c r="I36" s="7">
-        <v>91996</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M36" s="7">
-        <v>276</v>
-      </c>
-      <c r="N36" s="7">
-        <v>183330</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="D37" s="7">
-        <v>1325</v>
+        <v>91333</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="7">
+        <v>138</v>
+      </c>
+      <c r="I37" s="7">
+        <v>91996</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M37" s="7">
+        <v>276</v>
+      </c>
+      <c r="N37" s="7">
+        <v>183330</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1325</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>308</v>
@@ -4037,13 +4037,13 @@
         <v>309578</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>431</v>
@@ -4052,13 +4052,13 @@
         <v>289916</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>897</v>
@@ -4067,13 +4067,13 @@
         <v>599495</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4094,7 +4094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF6C269-E7D5-41A1-AB1F-5D300965C61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F483BC-B448-4611-9A02-5E6F075FD092}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4212,55 +4212,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3251</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>760</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>760</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2492</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>5743</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4269,196 +4269,196 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>36455</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>29908</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="M6" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>66363</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>228</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>625</v>
+        <v>6678</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>637</v>
+        <v>4452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>1262</v>
+        <v>11130</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>54837</v>
+        <v>7812</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>6063</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13876</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="7">
-        <v>96</v>
-      </c>
-      <c r="I8" s="7">
-        <v>64190</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M8" s="7">
-        <v>178</v>
-      </c>
-      <c r="N8" s="7">
-        <v>119027</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,108 +4467,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>95167</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>97837</v>
+        <v>11275</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>193004</v>
+        <v>25765</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>1967</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2809</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>4776</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4592,13 +4592,13 @@
         <v>916</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4607,121 +4607,121 @@
         <v>916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>17371</v>
+        <v>1967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>16570</v>
+        <v>2809</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>33941</v>
+        <v>4776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>17371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>16570</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>33941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>41</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>56</v>
@@ -4730,13 +4730,13 @@
         <v>38148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4745,13 +4745,13 @@
         <v>31876</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -4760,13 +4760,13 @@
         <v>70024</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,13 +4781,13 @@
         <v>57487</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -4796,13 +4796,13 @@
         <v>52171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -4811,270 +4811,270 @@
         <v>109657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>2868</v>
+        <v>625</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>3205</v>
+        <v>637</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>6073</v>
+        <v>1262</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>1345</v>
+        <v>609</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>33706</v>
+        <v>3251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>36127</v>
+        <v>2492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="N18" s="7">
-        <v>69832</v>
+        <v>5743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>296</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>823</v>
+        <v>36455</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>594</v>
+        <v>29908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="N19" s="7">
-        <v>1417</v>
+        <v>66363</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7">
-        <v>51111</v>
+        <v>54837</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H20" s="7">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="I20" s="7">
-        <v>45799</v>
+        <v>64190</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="N20" s="7">
-        <v>96910</v>
+        <v>119027</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,54 +5083,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D21" s="7">
-        <v>89854</v>
+        <v>95167</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>85725</v>
+        <v>97837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="N21" s="7">
-        <v>175578</v>
+        <v>193004</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5142,13 +5142,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5157,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5172,217 +5172,217 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>1273</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1853</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>306</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>6678</v>
+        <v>1770</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" s="7">
+        <v>3</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1699</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="M24" s="7">
+        <v>6</v>
+      </c>
+      <c r="N24" s="7">
+        <v>3469</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4452</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M24" s="7">
-        <v>12</v>
-      </c>
-      <c r="N24" s="7">
-        <v>11130</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>19809</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7">
-        <v>760</v>
+        <v>27817</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M25" s="7">
+        <v>75</v>
+      </c>
+      <c r="N25" s="7">
+        <v>47626</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="M25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>760</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7">
-        <v>7812</v>
+        <v>46922</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H26" s="7">
+        <v>52</v>
+      </c>
+      <c r="I26" s="7">
+        <v>34378</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>6063</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>125</v>
+      </c>
+      <c r="N26" s="7">
+        <v>81300</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="M26" s="7">
-        <v>16</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13876</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,267 +5391,267 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69081</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>11275</v>
+        <v>65167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="N27" s="7">
-        <v>25765</v>
+        <v>134248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1770</v>
+        <v>823</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>594</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1417</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="H28" s="7">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1699</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="M28" s="7">
-        <v>6</v>
-      </c>
-      <c r="N28" s="7">
-        <v>3469</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>580</v>
+        <v>1345</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>255</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" s="7">
         <v>2</v>
       </c>
-      <c r="I29" s="7">
-        <v>1273</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="M29" s="7">
-        <v>3</v>
-      </c>
       <c r="N29" s="7">
-        <v>1853</v>
+        <v>1345</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>19809</v>
+        <v>2868</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3205</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6073</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H30" s="7">
-        <v>43</v>
-      </c>
-      <c r="I30" s="7">
-        <v>27817</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M30" s="7">
-        <v>75</v>
-      </c>
-      <c r="N30" s="7">
-        <v>47626</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>33706</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H31" s="7">
+        <v>45</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36127</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="M31" s="7">
+        <v>90</v>
+      </c>
+      <c r="N31" s="7">
+        <v>69832</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7">
-        <v>46922</v>
+        <v>51111</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>359</v>
@@ -5663,10 +5663,10 @@
         <v>361</v>
       </c>
       <c r="H32" s="7">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I32" s="7">
-        <v>34378</v>
+        <v>45799</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>362</v>
@@ -5678,10 +5678,10 @@
         <v>364</v>
       </c>
       <c r="M32" s="7">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="N32" s="7">
-        <v>81300</v>
+        <v>96910</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>365</v>
@@ -5699,49 +5699,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D33" s="7">
-        <v>69081</v>
+        <v>89854</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I33" s="7">
-        <v>65167</v>
+        <v>85725</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="N33" s="7">
-        <v>134248</v>
+        <v>175578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,55 +5752,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>9856</v>
+        <v>1448</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>302</v>
+        <v>178</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>3</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1991</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="H34" s="7">
-        <v>15</v>
-      </c>
-      <c r="I34" s="7">
-        <v>10205</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>5</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3439</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="M34" s="7">
-        <v>30</v>
-      </c>
-      <c r="N34" s="7">
-        <v>20061</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>3</v>
@@ -5809,13 +5809,13 @@
         <v>1925</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -5824,13 +5824,13 @@
         <v>2798</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -5839,109 +5839,109 @@
         <v>4723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7">
+        <v>15</v>
+      </c>
+      <c r="D36" s="7">
+        <v>9856</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H36" s="7">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7">
+        <v>10205</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M36" s="7">
         <v>30</v>
       </c>
-      <c r="C36" s="7">
-        <v>163</v>
-      </c>
-      <c r="D36" s="7">
-        <v>114019</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H36" s="7">
-        <v>163</v>
-      </c>
-      <c r="I36" s="7">
-        <v>114874</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="N36" s="7">
+        <v>20061</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="M36" s="7">
-        <v>326</v>
-      </c>
-      <c r="N36" s="7">
-        <v>228892</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="D37" s="7">
-        <v>1448</v>
+        <v>114019</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>201</v>
+        <v>386</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H37" s="7">
+        <v>163</v>
+      </c>
+      <c r="I37" s="7">
+        <v>114874</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="7">
-        <v>3</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1991</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>326</v>
+      </c>
+      <c r="N37" s="7">
+        <v>228892</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="M37" s="7">
-        <v>5</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3439</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>392</v>
@@ -5953,7 +5953,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>291</v>
@@ -6013,13 +6013,13 @@
         <v>326078</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>444</v>
@@ -6028,13 +6028,13 @@
         <v>312174</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>918</v>
@@ -6043,13 +6043,13 @@
         <v>638252</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6070,7 +6070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5FF575-CF4F-4EE6-9610-0B427158BD1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92009DF6-F92F-497F-90BB-1A49C4A7F243}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6188,55 +6188,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2788</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7">
-        <v>8413</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="M4" s="7">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7">
-        <v>11201</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6245,13 +6245,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>411</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6260,13 +6260,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6275,166 +6275,166 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>37427</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>414</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>415</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>36816</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>417</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="M6" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>74244</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>420</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5062</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3841</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8903</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>759</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>759</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>423</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>63796</v>
+        <v>8145</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="H8" s="7">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>56909</v>
+        <v>8882</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="M8" s="7">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="N8" s="7">
-        <v>120705</v>
+        <v>17027</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,54 +6443,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>104011</v>
+        <v>13207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>102897</v>
+        <v>12723</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>206908</v>
+        <v>25930</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6499,52 +6499,52 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1433</v>
+        <v>1490</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>3469</v>
+        <v>1490</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -6553,13 +6553,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6568,13 +6568,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -6583,121 +6583,121 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>19729</v>
+        <v>1433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>445</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="H12" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>18394</v>
+        <v>2036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>38123</v>
+        <v>3469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>451</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>1490</v>
+        <v>19729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>435</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>436</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>18394</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>438</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M13" s="7">
+        <v>50</v>
+      </c>
+      <c r="N13" s="7">
+        <v>38123</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1490</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
         <v>46</v>
@@ -6706,13 +6706,13 @@
         <v>35184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -6721,13 +6721,13 @@
         <v>35851</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -6736,13 +6736,13 @@
         <v>71035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6757,13 @@
         <v>57836</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6772,13 +6772,13 @@
         <v>56281</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -6787,72 +6787,72 @@
         <v>114117</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3646</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>3023</v>
+        <v>759</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>454</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>6669</v>
+        <v>759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -6861,13 +6861,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6876,13 +6876,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -6891,112 +6891,112 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>40050</v>
+        <v>2788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>475</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>476</v>
+        <v>41</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>44706</v>
+        <v>8413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="N18" s="7">
-        <v>84756</v>
+        <v>11201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>37427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>465</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>466</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H19" s="7">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7">
+        <v>36816</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M19" s="7">
+        <v>111</v>
+      </c>
+      <c r="N19" s="7">
+        <v>74244</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>473</v>
@@ -7005,52 +7005,52 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D20" s="7">
-        <v>55832</v>
+        <v>63796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H20" s="7">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I20" s="7">
-        <v>56155</v>
+        <v>56909</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>478</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="M20" s="7">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="N20" s="7">
-        <v>111987</v>
+        <v>120705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,54 +7059,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D21" s="7">
-        <v>99528</v>
+        <v>104011</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H21" s="7">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="I21" s="7">
-        <v>103884</v>
+        <v>102897</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M21" s="7">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="N21" s="7">
-        <v>203411</v>
+        <v>206908</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>483</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7133,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7148,217 +7148,217 @@
         <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>22</v>
+        <v>485</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>1283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>22</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>5062</v>
+        <v>1479</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="M24" s="7">
+        <v>4</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2892</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3841</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="7">
-        <v>11</v>
-      </c>
-      <c r="N24" s="7">
-        <v>8903</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>23774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>22</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>123</v>
+        <v>496</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>21033</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>44808</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>41</v>
+        <v>501</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D26" s="7">
-        <v>8145</v>
+        <v>48608</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>241</v>
+        <v>503</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I26" s="7">
-        <v>8882</v>
+        <v>46939</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="N26" s="7">
-        <v>17027</v>
+        <v>95548</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,297 +7367,297 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13207</v>
+        <v>74621</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="I27" s="7">
-        <v>12723</v>
+        <v>69909</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>25930</v>
+        <v>144530</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>1479</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H28" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>1413</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M28" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>2892</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>524</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>517</v>
+        <v>11</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>23774</v>
+        <v>3646</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3023</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" s="7">
+        <v>9</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6669</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="H30" s="7">
-        <v>31</v>
-      </c>
-      <c r="I30" s="7">
-        <v>21033</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="M30" s="7">
-        <v>64</v>
-      </c>
-      <c r="N30" s="7">
-        <v>44808</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>40050</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>520</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" s="7">
+        <v>60</v>
+      </c>
+      <c r="I31" s="7">
+        <v>44706</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="M31" s="7">
+        <v>116</v>
+      </c>
+      <c r="N31" s="7">
+        <v>84756</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>279</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C32" s="7">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D32" s="7">
-        <v>48608</v>
+        <v>55832</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H32" s="7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I32" s="7">
-        <v>46939</v>
+        <v>56155</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>532</v>
+        <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>533</v>
       </c>
       <c r="M32" s="7">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N32" s="7">
-        <v>95548</v>
+        <v>111987</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>534</v>
@@ -7675,49 +7675,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D33" s="7">
-        <v>74621</v>
+        <v>99528</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H33" s="7">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="I33" s="7">
-        <v>69909</v>
+        <v>103884</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>270</v>
       </c>
       <c r="N33" s="7">
-        <v>144530</v>
+        <v>203411</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,55 +7728,55 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>9347</v>
+        <v>1490</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>404</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7">
+        <v>759</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2250</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H34" s="7">
-        <v>22</v>
-      </c>
-      <c r="I34" s="7">
-        <v>14884</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="M34" s="7">
-        <v>35</v>
-      </c>
-      <c r="N34" s="7">
-        <v>24231</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -7785,13 +7785,13 @@
         <v>759</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -7800,13 +7800,13 @@
         <v>524</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -7815,109 +7815,109 @@
         <v>1283</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="D36" s="7">
-        <v>126042</v>
+        <v>9347</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="7">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7">
+        <v>14884</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="M36" s="7">
+        <v>35</v>
+      </c>
+      <c r="N36" s="7">
+        <v>24231</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="P36" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="H36" s="7">
-        <v>176</v>
-      </c>
-      <c r="I36" s="7">
-        <v>124790</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="M36" s="7">
-        <v>352</v>
-      </c>
-      <c r="N36" s="7">
-        <v>250833</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C37" s="7">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="D37" s="7">
-        <v>1490</v>
+        <v>126042</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>15</v>
+        <v>548</v>
       </c>
       <c r="H37" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="I37" s="7">
-        <v>759</v>
+        <v>124790</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>185</v>
+        <v>549</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>443</v>
+        <v>551</v>
       </c>
       <c r="M37" s="7">
-        <v>3</v>
+        <v>352</v>
       </c>
       <c r="N37" s="7">
-        <v>2250</v>
+        <v>250833</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>549</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>552</v>
@@ -7929,7 +7929,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7">
         <v>288</v>
@@ -7989,13 +7989,13 @@
         <v>349203</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="H39" s="7">
         <v>493</v>
@@ -8004,13 +8004,13 @@
         <v>345694</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M39" s="7">
         <v>973</v>
@@ -8019,13 +8019,13 @@
         <v>694897</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF5F3E82-7056-4964-B1B8-4AE9EF8FED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85311BB4-B08F-4989-A35B-64ADAFE72A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{78A08021-9404-4D0A-A1EA-8B34C8C3295F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B35B21FC-4B16-42BE-B03A-22169BB78477}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="559">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -70,100 +70,193 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>5,96%</t>
+    <t>6,5%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -172,105 +265,114 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
+    <t>3,33%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
     <t>1,36%</t>
   </si>
   <si>
@@ -280,1300 +382,1258 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,81%</t>
+    <t>4,4%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>4,09%</t>
+    <t>4,32%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -1582,151 +1642,79 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
+    <t>0,88%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1725,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1833,39 +1821,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1917,7 +1905,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2028,13 +2016,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2043,6 +2024,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2107,19 +2095,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F697E1-8101-462F-B558-248B0DAA7271}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE918FB-1129-4629-9AF4-BAA383E3682B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2236,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>10522</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2251,91 +2259,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>11032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21554</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1958</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2310</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -2344,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2359,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -2374,115 +2382,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1958</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>2310</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>4268</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>10522</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>11032</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>21554</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,106 +2552,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>667</v>
+        <v>39358</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="7">
         <v>41</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>27191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>667</v>
+        <v>66549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>802</v>
+        <v>13301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>647</v>
+        <v>14389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="N11" s="7">
-        <v>1449</v>
+        <v>27690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -2652,13 +2660,13 @@
         <v>1361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2667,13 +2675,13 @@
         <v>1204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -2682,112 +2690,112 @@
         <v>2564</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>13301</v>
+        <v>802</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>14389</v>
+        <v>647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>27690</v>
+        <v>1449</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>39358</v>
+        <v>667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>27191</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>66549</v>
+        <v>667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>75</v>
@@ -2852,106 +2860,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>62446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>66319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>128765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>1293</v>
+        <v>25071</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7">
+        <v>27187</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="7">
         <v>81</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1820</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
       <c r="N17" s="7">
-        <v>3113</v>
+        <v>52258</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -2960,13 +2968,13 @@
         <v>3294</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2975,13 +2983,13 @@
         <v>3855</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2990,115 +2998,115 @@
         <v>7149</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>25071</v>
+        <v>1293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>27187</v>
+        <v>1820</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>52258</v>
+        <v>3113</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>62446</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>66319</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>128765</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,112 +3162,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D22" s="7">
-        <v>659</v>
+        <v>34416</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>34310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="N22" s="7">
-        <v>659</v>
+        <v>68727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>24540</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H23" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>20711</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M23" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N23" s="7">
-        <v>0</v>
+        <v>45251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -3268,13 +3276,13 @@
         <v>1762</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -3283,13 +3291,13 @@
         <v>632</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -3298,115 +3306,115 @@
         <v>2394</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>24540</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I25" s="7">
-        <v>20711</v>
+        <v>0</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N25" s="7">
-        <v>45251</v>
+        <v>0</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>34416</v>
+        <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>34310</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="M26" s="7">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>68727</v>
+        <v>659</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>145</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,112 +3470,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>58274</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="H28" s="7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I28" s="7">
-        <v>0</v>
+        <v>44931</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>103205</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>26464</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>53863</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -3576,13 +3584,13 @@
         <v>3391</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -3591,13 +3599,13 @@
         <v>5979</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -3606,112 +3614,112 @@
         <v>9369</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>26464</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>27400</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M31" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>53863</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>58274</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>170</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="H32" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>44931</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M32" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N32" s="7">
-        <v>103205</v>
+        <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>176</v>
@@ -3776,106 +3784,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>308</v>
       </c>
       <c r="D34" s="7">
-        <v>1325</v>
+        <v>205018</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I34" s="7">
-        <v>0</v>
+        <v>183783</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
-        <v>2</v>
+        <v>580</v>
       </c>
       <c r="N34" s="7">
-        <v>1325</v>
+        <v>388801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="D35" s="7">
-        <v>2095</v>
+        <v>91333</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="I35" s="7">
-        <v>2467</v>
+        <v>91996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M35" s="7">
-        <v>7</v>
+        <v>276</v>
       </c>
       <c r="N35" s="7">
-        <v>4562</v>
+        <v>183330</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -3884,13 +3892,13 @@
         <v>9807</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -3899,13 +3907,13 @@
         <v>11669</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -3914,115 +3922,115 @@
         <v>21477</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>91333</v>
+        <v>2095</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H37" s="7">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>91996</v>
+        <v>2467</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
-        <v>276</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>183330</v>
+        <v>4562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>308</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>205018</v>
+        <v>1325</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1325</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="7">
-        <v>272</v>
-      </c>
-      <c r="I38" s="7">
-        <v>183783</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M38" s="7">
-        <v>580</v>
-      </c>
-      <c r="N38" s="7">
-        <v>388801</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="P38" s="7" t="s">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,6 +4082,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4094,8 +4107,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F483BC-B448-4611-9A02-5E6F075FD092}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53EB8C-517E-4F2E-8FAA-C5E06769B046}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4111,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4212,106 +4225,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>760</v>
+        <v>6063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>760</v>
+        <v>13876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4452</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="7">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>11130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -4320,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4335,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4350,115 +4363,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>6678</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>4452</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>11130</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7812</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>6063</v>
+        <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>13876</v>
+        <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,106 +4533,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>38148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>70024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>17371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>916</v>
+        <v>16570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="N11" s="7">
-        <v>916</v>
+        <v>33941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -4628,13 +4641,13 @@
         <v>1967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4643,13 +4656,13 @@
         <v>2809</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4658,115 +4671,115 @@
         <v>4776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>17371</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>16570</v>
+        <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>33941</v>
+        <v>916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>38148</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H14" s="7">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>31876</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>70024</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,106 +4841,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>625</v>
+        <v>54837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>637</v>
+        <v>64190</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>1262</v>
+        <v>119027</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>36455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>609</v>
+        <v>29908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="N17" s="7">
-        <v>609</v>
+        <v>66363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>5</v>
@@ -4936,13 +4949,13 @@
         <v>3251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4951,13 +4964,13 @@
         <v>2492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4966,115 +4979,115 @@
         <v>5743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>36455</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H19" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>29908</v>
+        <v>609</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>285</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>286</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="M19" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>66363</v>
+        <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>54837</v>
+        <v>625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>64190</v>
+        <v>637</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>119027</v>
+        <v>1262</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,112 +5143,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>46922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>34378</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>81300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D23" s="7">
-        <v>580</v>
+        <v>19809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="I23" s="7">
-        <v>1273</v>
+        <v>27817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="N23" s="7">
-        <v>1853</v>
+        <v>47626</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
@@ -5244,13 +5257,13 @@
         <v>1770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5259,13 +5272,13 @@
         <v>1699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5274,115 +5287,115 @@
         <v>3469</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>19809</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>27817</v>
+        <v>1273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>319</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M25" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>47626</v>
+        <v>1853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>46922</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>324</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>325</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>34378</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>327</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>328</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>81300</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,112 +5451,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="D28" s="7">
-        <v>823</v>
+        <v>51111</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>334</v>
       </c>
       <c r="H28" s="7">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I28" s="7">
-        <v>594</v>
+        <v>45799</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>335</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="N28" s="7">
-        <v>1417</v>
+        <v>96910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7">
-        <v>1345</v>
+        <v>33706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>36127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="N29" s="7">
-        <v>1345</v>
+        <v>69832</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>11</v>
+        <v>348</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -5552,13 +5565,13 @@
         <v>2868</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>343</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5567,13 +5580,13 @@
         <v>3205</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -5582,115 +5595,115 @@
         <v>6073</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>33706</v>
+        <v>1345</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H31" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>36127</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>353</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M31" s="7">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>69832</v>
+        <v>1345</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>51111</v>
+        <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H32" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>45799</v>
+        <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>364</v>
       </c>
       <c r="M32" s="7">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>96910</v>
+        <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,106 +5765,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>291</v>
       </c>
       <c r="D34" s="7">
-        <v>1448</v>
+        <v>198830</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>367</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H34" s="7">
-        <v>3</v>
+        <v>259</v>
       </c>
       <c r="I34" s="7">
-        <v>1991</v>
+        <v>182306</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>279</v>
+        <v>369</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M34" s="7">
-        <v>5</v>
+        <v>550</v>
       </c>
       <c r="N34" s="7">
-        <v>3439</v>
+        <v>381137</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="D35" s="7">
-        <v>1925</v>
+        <v>114019</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H35" s="7">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="I35" s="7">
-        <v>2798</v>
+        <v>114874</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M35" s="7">
-        <v>7</v>
+        <v>326</v>
       </c>
       <c r="N35" s="7">
-        <v>4723</v>
+        <v>228892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -5860,13 +5873,13 @@
         <v>9856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -5875,13 +5888,13 @@
         <v>10205</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -5890,115 +5903,115 @@
         <v>20061</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>114019</v>
+        <v>1925</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>394</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="H37" s="7">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="I37" s="7">
-        <v>114874</v>
+        <v>2798</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>389</v>
+        <v>203</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M37" s="7">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="N37" s="7">
-        <v>228892</v>
+        <v>4723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>291</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>198830</v>
+        <v>1448</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>394</v>
+        <v>210</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>395</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H38" s="7">
-        <v>259</v>
+        <v>3</v>
       </c>
       <c r="I38" s="7">
-        <v>182306</v>
+        <v>1991</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>399</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="N38" s="7">
-        <v>381137</v>
+        <v>3439</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,6 +6063,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6070,8 +6088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92009DF6-F92F-497F-90BB-1A49C4A7F243}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154C2D8-800B-407F-BD50-925FBDCF118B}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6087,7 +6105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6188,106 +6206,106 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>403</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>404</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>8882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>405</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>406</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>17027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>408</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>409</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5062</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3841</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -6296,13 +6314,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6311,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6326,115 +6344,115 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>405</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>5062</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>3841</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>420</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>8903</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>8145</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>415</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>8882</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>417</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>17027</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>419</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>420</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>421</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,106 +6514,106 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>1490</v>
+        <v>35184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>422</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>35851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>425</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>1490</v>
+        <v>71035</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>19729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>18394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>433</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>38123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>12</v>
+        <v>437</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>2</v>
@@ -6604,13 +6622,13 @@
         <v>1433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6619,13 +6637,13 @@
         <v>2036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6634,112 +6652,112 @@
         <v>3469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>445</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>19729</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>436</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>18394</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>438</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>439</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>38123</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>441</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>442</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>35184</v>
+        <v>1490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>444</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>445</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>35851</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>447</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>71035</v>
+        <v>1490</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>451</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>452</v>
@@ -6804,106 +6822,106 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>63796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>454</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>759</v>
+        <v>56909</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="N16" s="7">
-        <v>759</v>
+        <v>120705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>149</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>37427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>36816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>464</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>74244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>468</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>4</v>
@@ -6912,13 +6930,13 @@
         <v>2788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>41</v>
+        <v>471</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -6927,13 +6945,13 @@
         <v>8413</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -6942,115 +6960,115 @@
         <v>11201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>37427</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>466</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>36816</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>468</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>74244</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>472</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>473</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>63796</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>474</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>475</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>56909</v>
+        <v>759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>477</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>759</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="M20" s="7">
-        <v>177</v>
-      </c>
-      <c r="N20" s="7">
-        <v>120705</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,112 +7124,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>48608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>483</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>46939</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>486</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>95548</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>487</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>488</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7">
-        <v>759</v>
+        <v>23774</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>490</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>484</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>524</v>
+        <v>21033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M23" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="N23" s="7">
-        <v>1283</v>
+        <v>44808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
@@ -7220,13 +7238,13 @@
         <v>1479</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7235,13 +7253,13 @@
         <v>1413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7250,115 +7268,115 @@
         <v>2892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>23774</v>
+        <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>495</v>
+        <v>143</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>21033</v>
+        <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>498</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="M25" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>44808</v>
+        <v>1283</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>501</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>502</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>48608</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>503</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>504</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>505</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>46939</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>506</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>507</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>508</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>95548</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>509</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>510</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>511</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,112 +7432,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D28" s="7">
-        <v>0</v>
+        <v>55832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>510</v>
       </c>
       <c r="G28" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H28" s="7">
+        <v>71</v>
+      </c>
+      <c r="I28" s="7">
+        <v>56155</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K28" s="7" t="s">
-        <v>12</v>
+        <v>513</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M28" s="7">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="N28" s="7">
-        <v>0</v>
+        <v>111987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>11</v>
+        <v>515</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>516</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7">
-        <v>0</v>
+        <v>40050</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>11</v>
+        <v>518</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>12</v>
+        <v>519</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="H29" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>44706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>11</v>
+        <v>521</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>522</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="M29" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="N29" s="7">
-        <v>0</v>
+        <v>84756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>11</v>
+        <v>524</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>12</v>
+        <v>525</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>5</v>
@@ -7528,13 +7546,13 @@
         <v>3646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>49</v>
+        <v>327</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7543,13 +7561,13 @@
         <v>3023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>485</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -7558,115 +7576,115 @@
         <v>6669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>397</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>40050</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>520</v>
+        <v>31</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>521</v>
+        <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="H31" s="7">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>44706</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>523</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>524</v>
+        <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M31" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N31" s="7">
-        <v>84756</v>
+        <v>0</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>526</v>
+        <v>31</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>527</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C32" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D32" s="7">
-        <v>55832</v>
+        <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>529</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>530</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H32" s="7">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>56155</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="M32" s="7">
-        <v>145</v>
-      </c>
-      <c r="N32" s="7">
-        <v>111987</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,106 +7746,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D34" s="7">
-        <v>1490</v>
+        <v>211565</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>534</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>535</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>92</v>
+        <v>536</v>
       </c>
       <c r="H34" s="7">
-        <v>1</v>
+        <v>293</v>
       </c>
       <c r="I34" s="7">
-        <v>759</v>
+        <v>204736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>537</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>11</v>
+        <v>538</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>427</v>
+        <v>539</v>
       </c>
       <c r="M34" s="7">
-        <v>3</v>
+        <v>581</v>
       </c>
       <c r="N34" s="7">
-        <v>2250</v>
+        <v>416301</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>540</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>537</v>
+        <v>373</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="D35" s="7">
-        <v>759</v>
+        <v>126042</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>179</v>
+        <v>542</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>519</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="H35" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="I35" s="7">
-        <v>524</v>
+        <v>124790</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>545</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>184</v>
+        <v>546</v>
       </c>
       <c r="M35" s="7">
-        <v>2</v>
+        <v>352</v>
       </c>
       <c r="N35" s="7">
-        <v>1283</v>
+        <v>250833</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>374</v>
+        <v>544</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>269</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>13</v>
@@ -7836,13 +7854,13 @@
         <v>9347</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>540</v>
+        <v>397</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7851,13 +7869,13 @@
         <v>14884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="M36" s="7">
         <v>35</v>
@@ -7866,115 +7884,115 @@
         <v>24231</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>308</v>
+        <v>360</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>126042</v>
+        <v>759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>546</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>547</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H37" s="7">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>124790</v>
+        <v>524</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>550</v>
+        <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="M37" s="7">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>250833</v>
+        <v>1283</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>549</v>
+        <v>394</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>552</v>
+        <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>553</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C38" s="7">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>211565</v>
+        <v>1490</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>554</v>
+        <v>208</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>555</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>556</v>
       </c>
       <c r="H38" s="7">
-        <v>293</v>
+        <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>204736</v>
+        <v>759</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2250</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="M38" s="7">
-        <v>581</v>
-      </c>
-      <c r="N38" s="7">
-        <v>416301</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8026,6 +8044,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85311BB4-B08F-4989-A35B-64ADAFE72A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED765010-7C65-4A18-BBAF-7E66B3B78A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B35B21FC-4B16-42BE-B03A-22169BB78477}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{011A9507-0B95-4A49-9152-E81290D1D27F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="564">
   <si>
     <t>Menores según frecuencia de sentirse  alegre en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,28 +76,28 @@
     <t>84,31%</t>
   </si>
   <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>82,68%</t>
   </si>
   <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,1615 +106,1630 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>17,32%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>66,12%</t>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse  alegre en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>58,34%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2012 (Tasa respuesta: 43,74%)</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse  alegre en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>40,58%</t>
   </si>
   <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>0,87%</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE918FB-1129-4629-9AF4-BAA383E3682B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32767381-DE62-4338-AF88-FB7AD53388E4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2938,7 +2953,7 @@
         <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -2947,13 +2962,13 @@
         <v>52258</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2983,13 @@
         <v>3294</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2983,13 +2998,13 @@
         <v>3855</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>11</v>
@@ -2998,13 +3013,13 @@
         <v>7149</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3034,7 @@
         <v>1293</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
@@ -3309,10 +3324,10 @@
         <v>138</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3333,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3348,7 +3363,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3363,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3393,13 @@
         <v>659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3399,7 +3414,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3793,10 +3808,10 @@
         <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H34" s="7">
         <v>272</v>
@@ -3805,13 +3820,13 @@
         <v>183783</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>580</v>
@@ -3820,13 +3835,13 @@
         <v>388801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,13 +3856,13 @@
         <v>91333</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H35" s="7">
         <v>138</v>
@@ -3856,13 +3871,13 @@
         <v>91996</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M35" s="7">
         <v>276</v>
@@ -3871,13 +3886,13 @@
         <v>183330</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3907,13 @@
         <v>9807</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -3907,13 +3922,13 @@
         <v>11669</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M36" s="7">
         <v>32</v>
@@ -3922,13 +3937,13 @@
         <v>21477</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +3958,13 @@
         <v>2095</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3958,13 +3973,13 @@
         <v>2467</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -3973,13 +3988,13 @@
         <v>4562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4009,13 @@
         <v>1325</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4015,7 +4030,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -4024,13 +4039,13 @@
         <v>1325</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,7 +4101,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4107,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC53EB8C-517E-4F2E-8FAA-C5E06769B046}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF34088-8A37-4BEC-82EC-E3454DFB6BD8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4124,7 +4139,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4231,13 +4246,13 @@
         <v>7812</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4246,13 +4261,13 @@
         <v>6063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4261,13 +4276,13 @@
         <v>13876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4297,13 @@
         <v>6678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4297,13 +4312,13 @@
         <v>4452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4312,13 +4327,13 @@
         <v>11130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4369,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4369,7 +4384,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,7 +4420,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4420,7 +4435,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,13 +4465,13 @@
         <v>760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4465,13 +4480,13 @@
         <v>760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4554,13 @@
         <v>38148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -4554,13 +4569,13 @@
         <v>31876</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -4569,13 +4584,13 @@
         <v>70024</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4605,13 @@
         <v>17371</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4605,13 +4620,13 @@
         <v>16570</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>49</v>
@@ -4620,13 +4635,13 @@
         <v>33941</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4656,13 @@
         <v>1967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4656,13 +4671,13 @@
         <v>2809</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -4671,13 +4686,13 @@
         <v>4776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4707,13 +4722,13 @@
         <v>916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -4722,13 +4737,13 @@
         <v>916</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,7 +4764,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4779,7 +4794,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4862,13 @@
         <v>54837</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H16" s="7">
         <v>96</v>
@@ -4862,13 +4877,13 @@
         <v>64190</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -4877,13 +4892,13 @@
         <v>119027</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4913,13 @@
         <v>36455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -4913,13 +4928,13 @@
         <v>29908</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>100</v>
@@ -4928,13 +4943,13 @@
         <v>66363</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4964,13 @@
         <v>3251</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>286</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -4964,13 +4979,13 @@
         <v>2492</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4979,10 +4994,10 @@
         <v>5743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>293</v>
@@ -5006,7 +5021,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5021,7 +5036,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5030,13 +5045,13 @@
         <v>609</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5066,13 @@
         <v>625</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5072,7 +5087,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5087,7 +5102,7 @@
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5170,13 @@
         <v>46922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5170,13 +5185,13 @@
         <v>34378</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>125</v>
@@ -5185,13 +5200,13 @@
         <v>81300</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5221,13 @@
         <v>19809</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H23" s="7">
         <v>43</v>
@@ -5221,13 +5236,13 @@
         <v>27817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -5236,13 +5251,13 @@
         <v>47626</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5272,13 @@
         <v>1770</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -5272,13 +5287,13 @@
         <v>1699</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -5287,13 +5302,13 @@
         <v>3469</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5323,13 @@
         <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5323,13 +5338,13 @@
         <v>1273</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -5338,13 +5353,13 @@
         <v>1853</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,7 +5380,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5380,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5395,7 +5410,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5478,13 @@
         <v>51111</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -5478,13 +5493,13 @@
         <v>45799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M28" s="7">
         <v>131</v>
@@ -5493,13 +5508,13 @@
         <v>96910</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5529,13 @@
         <v>33706</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -5529,13 +5544,13 @@
         <v>36127</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M29" s="7">
         <v>90</v>
@@ -5544,13 +5559,13 @@
         <v>69832</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,13 +5580,13 @@
         <v>2868</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -5580,13 +5595,13 @@
         <v>3205</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -5595,13 +5610,13 @@
         <v>6073</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5631,13 @@
         <v>1345</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5637,7 +5652,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -5646,13 +5661,13 @@
         <v>1345</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5682,13 @@
         <v>823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -5682,13 +5697,13 @@
         <v>594</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -5697,13 +5712,13 @@
         <v>1417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5786,13 @@
         <v>198830</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H34" s="7">
         <v>259</v>
@@ -5786,13 +5801,13 @@
         <v>182306</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>370</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M34" s="7">
         <v>550</v>
@@ -5801,13 +5816,13 @@
         <v>381137</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5837,13 @@
         <v>114019</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H35" s="7">
         <v>163</v>
@@ -5837,13 +5852,13 @@
         <v>114874</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M35" s="7">
         <v>326</v>
@@ -5852,13 +5867,13 @@
         <v>228892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5888,13 @@
         <v>9856</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -5888,13 +5903,13 @@
         <v>10205</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -5903,13 +5918,13 @@
         <v>20061</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5939,13 @@
         <v>1925</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -5939,13 +5954,13 @@
         <v>2798</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -5954,13 +5969,13 @@
         <v>4723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>397</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5990,13 @@
         <v>1448</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -5990,13 +6005,13 @@
         <v>1991</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>403</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -6005,13 +6020,13 @@
         <v>3439</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6082,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -6088,7 +6103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154C2D8-800B-407F-BD50-925FBDCF118B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891193A7-0AEE-4775-9095-714B218AFABF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6105,7 +6120,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6212,13 +6227,13 @@
         <v>8145</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6227,13 +6242,13 @@
         <v>8882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -6242,13 +6257,13 @@
         <v>17027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6278,13 @@
         <v>5062</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>413</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6278,13 +6293,13 @@
         <v>3841</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>415</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6293,13 +6308,13 @@
         <v>8903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,7 +6350,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6350,7 +6365,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,7 +6401,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6401,7 +6416,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,7 +6452,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6452,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6535,13 @@
         <v>35184</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -6535,13 +6550,13 @@
         <v>35851</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -6550,13 +6565,13 @@
         <v>71035</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6586,13 @@
         <v>19729</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6586,13 +6601,13 @@
         <v>18394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -6601,13 +6616,13 @@
         <v>38123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6637,13 @@
         <v>1433</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6637,13 +6652,13 @@
         <v>2036</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>441</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6652,10 +6667,10 @@
         <v>3469</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>445</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>446</v>
@@ -6724,7 +6739,7 @@
         <v>1490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
@@ -6754,13 +6769,13 @@
         <v>1490</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6843,13 @@
         <v>63796</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>86</v>
@@ -6843,13 +6858,13 @@
         <v>56909</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>177</v>
@@ -6858,7 +6873,7 @@
         <v>120705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>149</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>459</v>
@@ -6948,10 +6963,10 @@
         <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>140</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -6960,13 +6975,13 @@
         <v>11201</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,7 +7002,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -7017,7 +7032,7 @@
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,7 +7053,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7047,13 +7062,13 @@
         <v>759</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7062,13 +7077,13 @@
         <v>759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>480</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,7 +7151,7 @@
         <v>48608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>482</v>
@@ -7193,7 +7208,7 @@
         <v>491</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
@@ -7202,13 +7217,13 @@
         <v>21033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>64</v>
@@ -7217,13 +7232,13 @@
         <v>44808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7253,13 @@
         <v>1479</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7253,13 +7268,13 @@
         <v>1413</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -7268,13 +7283,13 @@
         <v>2892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>502</v>
+        <v>101</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7304,13 @@
         <v>759</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -7304,13 +7319,13 @@
         <v>524</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7319,13 +7334,13 @@
         <v>1283</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,7 +7361,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7361,7 +7376,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7376,7 +7391,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7459,13 @@
         <v>55832</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -7459,13 +7474,13 @@
         <v>56155</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M28" s="7">
         <v>145</v>
@@ -7474,13 +7489,13 @@
         <v>111987</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7510,13 @@
         <v>40050</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H29" s="7">
         <v>60</v>
@@ -7510,13 +7525,13 @@
         <v>44706</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M29" s="7">
         <v>116</v>
@@ -7525,13 +7540,13 @@
         <v>84756</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7561,13 @@
         <v>3646</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -7561,13 +7576,13 @@
         <v>3023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>529</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>66</v>
+        <v>531</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -7576,13 +7591,13 @@
         <v>6669</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>397</v>
+        <v>533</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7603,7 +7618,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7618,7 +7633,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7633,7 +7648,7 @@
         <v>32</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,7 +7669,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7669,7 +7684,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -7684,7 +7699,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7767,13 @@
         <v>211565</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H34" s="7">
         <v>293</v>
@@ -7767,13 +7782,13 @@
         <v>204736</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M34" s="7">
         <v>581</v>
@@ -7782,13 +7797,13 @@
         <v>416301</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>373</v>
+        <v>544</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>541</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7818,13 @@
         <v>126042</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>519</v>
+        <v>546</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H35" s="7">
         <v>176</v>
@@ -7818,13 +7833,13 @@
         <v>124790</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="M35" s="7">
         <v>352</v>
@@ -7833,13 +7848,13 @@
         <v>250833</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7857,10 +7872,10 @@
         <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>397</v>
+        <v>67</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -7869,13 +7884,13 @@
         <v>14884</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>35</v>
@@ -7884,13 +7899,13 @@
         <v>24231</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>360</v>
+        <v>557</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,13 +7920,13 @@
         <v>759</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7920,13 +7935,13 @@
         <v>524</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -7935,13 +7950,13 @@
         <v>1283</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>289</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,13 +7971,13 @@
         <v>1490</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7971,13 +7986,13 @@
         <v>759</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -7986,13 +8001,13 @@
         <v>2250</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,7 +8063,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
